--- a/errorsout.xlsx
+++ b/errorsout.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,10 +439,15 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>Демидко</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>2023-01-09</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>2023-01-10</t>
         </is>
@@ -454,10 +459,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>ворона</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>2023-01-07</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
